--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_107.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_107.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
   <si>
     <t>STR#</t>
   </si>
@@ -61,6 +61,15 @@
   </si>
   <si>
     <t>https://www.tripadvisor.com/Hotel_Review-g33252-d250393-Reviews-Chateau_Marmont-West_Hollywood_California.html</t>
+  </si>
+  <si>
+    <t>469</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>529</t>
   </si>
   <si>
     <t>https://www.orbitz.com/Los-Angeles-Hotels-Hollywood-Historic-Hotel.h3692166.Hotel-Information</t>
@@ -532,11 +541,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +573,79 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="J1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="K1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="L1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="M1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="N1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="O1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="P1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="Q1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="R1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="S1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="T1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="U1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="V1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="W1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="X1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="Y1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_107.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_107.xlsx
@@ -6706,7 +6706,7 @@
         <v>11659</v>
       </c>
       <c r="B2" t="n">
-        <v>130627</v>
+        <v>161364</v>
       </c>
       <c r="C2" t="s">
         <v>44</v>
@@ -6773,7 +6773,7 @@
         <v>11659</v>
       </c>
       <c r="B3" t="n">
-        <v>130628</v>
+        <v>161365</v>
       </c>
       <c r="C3" t="s">
         <v>55</v>
@@ -6897,7 +6897,7 @@
         <v>11659</v>
       </c>
       <c r="B5" t="n">
-        <v>130629</v>
+        <v>161366</v>
       </c>
       <c r="C5" t="s">
         <v>70</v>
@@ -6960,7 +6960,7 @@
         <v>11659</v>
       </c>
       <c r="B6" t="n">
-        <v>130630</v>
+        <v>161367</v>
       </c>
       <c r="C6" t="s">
         <v>77</v>
@@ -7021,7 +7021,7 @@
         <v>11659</v>
       </c>
       <c r="B7" t="n">
-        <v>130631</v>
+        <v>161368</v>
       </c>
       <c r="C7" t="s">
         <v>83</v>
@@ -7086,7 +7086,7 @@
         <v>11659</v>
       </c>
       <c r="B8" t="n">
-        <v>130632</v>
+        <v>161369</v>
       </c>
       <c r="C8" t="s">
         <v>90</v>
@@ -7149,7 +7149,7 @@
         <v>11659</v>
       </c>
       <c r="B9" t="n">
-        <v>130633</v>
+        <v>161370</v>
       </c>
       <c r="C9" t="s">
         <v>97</v>
@@ -7214,7 +7214,7 @@
         <v>11659</v>
       </c>
       <c r="B10" t="n">
-        <v>130634</v>
+        <v>161371</v>
       </c>
       <c r="C10" t="s">
         <v>106</v>
@@ -7271,7 +7271,7 @@
         <v>11659</v>
       </c>
       <c r="B11" t="n">
-        <v>130635</v>
+        <v>161372</v>
       </c>
       <c r="C11" t="s">
         <v>112</v>
@@ -7393,7 +7393,7 @@
         <v>11659</v>
       </c>
       <c r="B13" t="n">
-        <v>130636</v>
+        <v>138015</v>
       </c>
       <c r="C13" t="s">
         <v>127</v>
@@ -7460,7 +7460,7 @@
         <v>11659</v>
       </c>
       <c r="B14" t="n">
-        <v>130637</v>
+        <v>161373</v>
       </c>
       <c r="C14" t="s">
         <v>135</v>
@@ -7517,7 +7517,7 @@
         <v>11659</v>
       </c>
       <c r="B15" t="n">
-        <v>130638</v>
+        <v>161374</v>
       </c>
       <c r="C15" t="s">
         <v>141</v>
@@ -7584,7 +7584,7 @@
         <v>11659</v>
       </c>
       <c r="B16" t="n">
-        <v>130639</v>
+        <v>161375</v>
       </c>
       <c r="C16" t="s">
         <v>147</v>
@@ -7777,7 +7777,7 @@
         <v>11659</v>
       </c>
       <c r="B19" t="n">
-        <v>130640</v>
+        <v>161376</v>
       </c>
       <c r="C19" t="s">
         <v>170</v>
@@ -7834,7 +7834,7 @@
         <v>11659</v>
       </c>
       <c r="B20" t="n">
-        <v>130641</v>
+        <v>161377</v>
       </c>
       <c r="C20" t="s">
         <v>177</v>
@@ -7901,7 +7901,7 @@
         <v>11659</v>
       </c>
       <c r="B21" t="n">
-        <v>130642</v>
+        <v>161378</v>
       </c>
       <c r="C21" t="s">
         <v>184</v>
@@ -7962,7 +7962,7 @@
         <v>11659</v>
       </c>
       <c r="B22" t="n">
-        <v>130643</v>
+        <v>161379</v>
       </c>
       <c r="C22" t="s">
         <v>190</v>
@@ -8027,7 +8027,7 @@
         <v>11659</v>
       </c>
       <c r="B23" t="n">
-        <v>130644</v>
+        <v>161380</v>
       </c>
       <c r="C23" t="s">
         <v>198</v>
@@ -8088,7 +8088,7 @@
         <v>11659</v>
       </c>
       <c r="B24" t="n">
-        <v>130645</v>
+        <v>161381</v>
       </c>
       <c r="C24" t="s">
         <v>204</v>
@@ -8153,7 +8153,7 @@
         <v>11659</v>
       </c>
       <c r="B25" t="n">
-        <v>130646</v>
+        <v>161382</v>
       </c>
       <c r="C25" t="s">
         <v>211</v>
@@ -8214,7 +8214,7 @@
         <v>11659</v>
       </c>
       <c r="B26" t="n">
-        <v>130647</v>
+        <v>161383</v>
       </c>
       <c r="C26" t="s">
         <v>217</v>
@@ -8279,7 +8279,7 @@
         <v>11659</v>
       </c>
       <c r="B27" t="n">
-        <v>130648</v>
+        <v>161384</v>
       </c>
       <c r="C27" t="s">
         <v>224</v>
@@ -8346,7 +8346,7 @@
         <v>11659</v>
       </c>
       <c r="B28" t="n">
-        <v>130649</v>
+        <v>161385</v>
       </c>
       <c r="C28" t="s">
         <v>231</v>
@@ -8480,7 +8480,7 @@
         <v>11659</v>
       </c>
       <c r="B30" t="n">
-        <v>130650</v>
+        <v>161386</v>
       </c>
       <c r="C30" t="s">
         <v>244</v>
@@ -8545,7 +8545,7 @@
         <v>11659</v>
       </c>
       <c r="B31" t="n">
-        <v>130651</v>
+        <v>161387</v>
       </c>
       <c r="C31" t="s">
         <v>250</v>
@@ -8606,7 +8606,7 @@
         <v>11659</v>
       </c>
       <c r="B32" t="n">
-        <v>130652</v>
+        <v>161388</v>
       </c>
       <c r="C32" t="s">
         <v>257</v>
@@ -8730,7 +8730,7 @@
         <v>11659</v>
       </c>
       <c r="B34" t="n">
-        <v>130653</v>
+        <v>161389</v>
       </c>
       <c r="C34" t="s">
         <v>270</v>
@@ -8797,7 +8797,7 @@
         <v>11659</v>
       </c>
       <c r="B35" t="n">
-        <v>130654</v>
+        <v>161390</v>
       </c>
       <c r="C35" t="s">
         <v>276</v>
@@ -8858,7 +8858,7 @@
         <v>11659</v>
       </c>
       <c r="B36" t="n">
-        <v>130655</v>
+        <v>161391</v>
       </c>
       <c r="C36" t="s">
         <v>282</v>
@@ -8919,7 +8919,7 @@
         <v>11659</v>
       </c>
       <c r="B37" t="n">
-        <v>130656</v>
+        <v>161392</v>
       </c>
       <c r="C37" t="s">
         <v>290</v>
@@ -8982,7 +8982,7 @@
         <v>11659</v>
       </c>
       <c r="B38" t="n">
-        <v>130657</v>
+        <v>161393</v>
       </c>
       <c r="C38" t="s">
         <v>295</v>
@@ -9039,7 +9039,7 @@
         <v>11659</v>
       </c>
       <c r="B39" t="n">
-        <v>130658</v>
+        <v>161394</v>
       </c>
       <c r="C39" t="s">
         <v>301</v>
@@ -9106,7 +9106,7 @@
         <v>11659</v>
       </c>
       <c r="B40" t="n">
-        <v>130659</v>
+        <v>161395</v>
       </c>
       <c r="C40" t="s">
         <v>307</v>
@@ -9171,7 +9171,7 @@
         <v>11659</v>
       </c>
       <c r="B41" t="n">
-        <v>130660</v>
+        <v>161396</v>
       </c>
       <c r="C41" t="s">
         <v>314</v>
@@ -9232,7 +9232,7 @@
         <v>11659</v>
       </c>
       <c r="B42" t="n">
-        <v>130661</v>
+        <v>161397</v>
       </c>
       <c r="C42" t="s">
         <v>321</v>
@@ -9358,7 +9358,7 @@
         <v>11659</v>
       </c>
       <c r="B44" t="n">
-        <v>130662</v>
+        <v>161398</v>
       </c>
       <c r="C44" t="s">
         <v>336</v>
@@ -9419,7 +9419,7 @@
         <v>11659</v>
       </c>
       <c r="B45" t="n">
-        <v>130663</v>
+        <v>161399</v>
       </c>
       <c r="C45" t="s">
         <v>344</v>
@@ -9480,7 +9480,7 @@
         <v>11659</v>
       </c>
       <c r="B46" t="n">
-        <v>130664</v>
+        <v>161400</v>
       </c>
       <c r="C46" t="s">
         <v>350</v>
@@ -9541,7 +9541,7 @@
         <v>11659</v>
       </c>
       <c r="B47" t="n">
-        <v>130665</v>
+        <v>161401</v>
       </c>
       <c r="C47" t="s">
         <v>357</v>
@@ -9602,7 +9602,7 @@
         <v>11659</v>
       </c>
       <c r="B48" t="n">
-        <v>130666</v>
+        <v>161402</v>
       </c>
       <c r="C48" t="s">
         <v>363</v>
@@ -9669,7 +9669,7 @@
         <v>11659</v>
       </c>
       <c r="B49" t="n">
-        <v>130667</v>
+        <v>161403</v>
       </c>
       <c r="C49" t="s">
         <v>369</v>
@@ -9803,7 +9803,7 @@
         <v>11659</v>
       </c>
       <c r="B51" t="n">
-        <v>130668</v>
+        <v>161404</v>
       </c>
       <c r="C51" t="s">
         <v>383</v>
@@ -9868,7 +9868,7 @@
         <v>11659</v>
       </c>
       <c r="B52" t="n">
-        <v>130669</v>
+        <v>161405</v>
       </c>
       <c r="C52" t="s">
         <v>390</v>
@@ -9990,7 +9990,7 @@
         <v>11659</v>
       </c>
       <c r="B54" t="n">
-        <v>130670</v>
+        <v>161406</v>
       </c>
       <c r="C54" t="s">
         <v>403</v>
@@ -10051,7 +10051,7 @@
         <v>11659</v>
       </c>
       <c r="B55" t="n">
-        <v>130671</v>
+        <v>161407</v>
       </c>
       <c r="C55" t="s">
         <v>409</v>
@@ -10185,7 +10185,7 @@
         <v>11659</v>
       </c>
       <c r="B57" t="n">
-        <v>130672</v>
+        <v>161408</v>
       </c>
       <c r="C57" t="s">
         <v>423</v>
@@ -10250,7 +10250,7 @@
         <v>11659</v>
       </c>
       <c r="B58" t="n">
-        <v>130673</v>
+        <v>161409</v>
       </c>
       <c r="C58" t="s">
         <v>429</v>
@@ -10315,7 +10315,7 @@
         <v>11659</v>
       </c>
       <c r="B59" t="n">
-        <v>130674</v>
+        <v>161410</v>
       </c>
       <c r="C59" t="s">
         <v>436</v>
@@ -10382,7 +10382,7 @@
         <v>11659</v>
       </c>
       <c r="B60" t="n">
-        <v>130675</v>
+        <v>161411</v>
       </c>
       <c r="C60" t="s">
         <v>443</v>
@@ -10449,7 +10449,7 @@
         <v>11659</v>
       </c>
       <c r="B61" t="n">
-        <v>130676</v>
+        <v>161412</v>
       </c>
       <c r="C61" t="s">
         <v>450</v>
@@ -10516,7 +10516,7 @@
         <v>11659</v>
       </c>
       <c r="B62" t="n">
-        <v>130677</v>
+        <v>161413</v>
       </c>
       <c r="C62" t="s">
         <v>457</v>
@@ -10642,7 +10642,7 @@
         <v>11659</v>
       </c>
       <c r="B64" t="n">
-        <v>130678</v>
+        <v>161414</v>
       </c>
       <c r="C64" t="s">
         <v>469</v>
@@ -10703,7 +10703,7 @@
         <v>11659</v>
       </c>
       <c r="B65" t="n">
-        <v>130679</v>
+        <v>161415</v>
       </c>
       <c r="C65" t="s">
         <v>476</v>
@@ -10835,7 +10835,7 @@
         <v>11659</v>
       </c>
       <c r="B67" t="n">
-        <v>130680</v>
+        <v>161416</v>
       </c>
       <c r="C67" t="s">
         <v>489</v>
@@ -10967,7 +10967,7 @@
         <v>11659</v>
       </c>
       <c r="B69" t="n">
-        <v>130681</v>
+        <v>161417</v>
       </c>
       <c r="C69" t="s">
         <v>502</v>
@@ -11028,7 +11028,7 @@
         <v>11659</v>
       </c>
       <c r="B70" t="n">
-        <v>130682</v>
+        <v>161418</v>
       </c>
       <c r="C70" t="s">
         <v>509</v>
@@ -11150,7 +11150,7 @@
         <v>11659</v>
       </c>
       <c r="B72" t="n">
-        <v>130683</v>
+        <v>161419</v>
       </c>
       <c r="C72" t="s">
         <v>522</v>
@@ -11211,7 +11211,7 @@
         <v>11659</v>
       </c>
       <c r="B73" t="n">
-        <v>130684</v>
+        <v>161420</v>
       </c>
       <c r="C73" t="s">
         <v>528</v>
@@ -11278,7 +11278,7 @@
         <v>11659</v>
       </c>
       <c r="B74" t="n">
-        <v>130685</v>
+        <v>161421</v>
       </c>
       <c r="C74" t="s">
         <v>534</v>
@@ -11402,7 +11402,7 @@
         <v>11659</v>
       </c>
       <c r="B76" t="n">
-        <v>130686</v>
+        <v>161422</v>
       </c>
       <c r="C76" t="s">
         <v>547</v>
@@ -11463,7 +11463,7 @@
         <v>11659</v>
       </c>
       <c r="B77" t="n">
-        <v>130687</v>
+        <v>161423</v>
       </c>
       <c r="C77" t="s">
         <v>553</v>
@@ -11658,7 +11658,7 @@
         <v>11659</v>
       </c>
       <c r="B80" t="n">
-        <v>130688</v>
+        <v>161424</v>
       </c>
       <c r="C80" t="s">
         <v>572</v>
@@ -11723,7 +11723,7 @@
         <v>11659</v>
       </c>
       <c r="B81" t="n">
-        <v>130689</v>
+        <v>161425</v>
       </c>
       <c r="C81" t="s">
         <v>580</v>
@@ -11857,7 +11857,7 @@
         <v>11659</v>
       </c>
       <c r="B83" t="n">
-        <v>130690</v>
+        <v>161426</v>
       </c>
       <c r="C83" t="s">
         <v>593</v>
@@ -11924,7 +11924,7 @@
         <v>11659</v>
       </c>
       <c r="B84" t="n">
-        <v>130691</v>
+        <v>161427</v>
       </c>
       <c r="C84" t="s">
         <v>599</v>
@@ -11989,7 +11989,7 @@
         <v>11659</v>
       </c>
       <c r="B85" t="n">
-        <v>130692</v>
+        <v>161428</v>
       </c>
       <c r="C85" t="s">
         <v>604</v>
@@ -12050,7 +12050,7 @@
         <v>11659</v>
       </c>
       <c r="B86" t="n">
-        <v>130693</v>
+        <v>161429</v>
       </c>
       <c r="C86" t="s">
         <v>610</v>
@@ -12117,7 +12117,7 @@
         <v>11659</v>
       </c>
       <c r="B87" t="n">
-        <v>130694</v>
+        <v>161430</v>
       </c>
       <c r="C87" t="s">
         <v>617</v>
@@ -12178,7 +12178,7 @@
         <v>11659</v>
       </c>
       <c r="B88" t="n">
-        <v>130695</v>
+        <v>161431</v>
       </c>
       <c r="C88" t="s">
         <v>623</v>
@@ -12308,7 +12308,7 @@
         <v>11659</v>
       </c>
       <c r="B90" t="n">
-        <v>130696</v>
+        <v>161432</v>
       </c>
       <c r="C90" t="s">
         <v>636</v>
@@ -12369,7 +12369,7 @@
         <v>11659</v>
       </c>
       <c r="B91" t="n">
-        <v>130697</v>
+        <v>161433</v>
       </c>
       <c r="C91" t="s">
         <v>642</v>
@@ -12426,7 +12426,7 @@
         <v>11659</v>
       </c>
       <c r="B92" t="n">
-        <v>130698</v>
+        <v>161434</v>
       </c>
       <c r="C92" t="s">
         <v>648</v>
@@ -12609,7 +12609,7 @@
         <v>11659</v>
       </c>
       <c r="B95" t="n">
-        <v>130699</v>
+        <v>161435</v>
       </c>
       <c r="C95" t="s">
         <v>670</v>
@@ -12670,7 +12670,7 @@
         <v>11659</v>
       </c>
       <c r="B96" t="n">
-        <v>130700</v>
+        <v>161436</v>
       </c>
       <c r="C96" t="s">
         <v>676</v>
@@ -12735,7 +12735,7 @@
         <v>11659</v>
       </c>
       <c r="B97" t="n">
-        <v>130701</v>
+        <v>161437</v>
       </c>
       <c r="C97" t="s">
         <v>682</v>
@@ -12798,7 +12798,7 @@
         <v>11659</v>
       </c>
       <c r="B98" t="n">
-        <v>130702</v>
+        <v>161438</v>
       </c>
       <c r="C98" t="s">
         <v>689</v>
@@ -12859,7 +12859,7 @@
         <v>11659</v>
       </c>
       <c r="B99" t="n">
-        <v>130703</v>
+        <v>161439</v>
       </c>
       <c r="C99" t="s">
         <v>696</v>
@@ -12926,7 +12926,7 @@
         <v>11659</v>
       </c>
       <c r="B100" t="n">
-        <v>130704</v>
+        <v>161440</v>
       </c>
       <c r="C100" t="s">
         <v>702</v>
@@ -13048,7 +13048,7 @@
         <v>11659</v>
       </c>
       <c r="B102" t="n">
-        <v>130705</v>
+        <v>161441</v>
       </c>
       <c r="C102" t="s">
         <v>715</v>
@@ -13113,7 +13113,7 @@
         <v>11659</v>
       </c>
       <c r="B103" t="n">
-        <v>130706</v>
+        <v>161442</v>
       </c>
       <c r="C103" t="s">
         <v>722</v>
@@ -13178,7 +13178,7 @@
         <v>11659</v>
       </c>
       <c r="B104" t="n">
-        <v>130707</v>
+        <v>161443</v>
       </c>
       <c r="C104" t="s">
         <v>728</v>
@@ -13239,7 +13239,7 @@
         <v>11659</v>
       </c>
       <c r="B105" t="n">
-        <v>130708</v>
+        <v>161444</v>
       </c>
       <c r="C105" t="s">
         <v>734</v>
@@ -13371,7 +13371,7 @@
         <v>11659</v>
       </c>
       <c r="B107" t="n">
-        <v>130709</v>
+        <v>161445</v>
       </c>
       <c r="C107" t="s">
         <v>748</v>
@@ -13432,7 +13432,7 @@
         <v>11659</v>
       </c>
       <c r="B108" t="n">
-        <v>130710</v>
+        <v>161446</v>
       </c>
       <c r="C108" t="s">
         <v>754</v>
@@ -13495,7 +13495,7 @@
         <v>11659</v>
       </c>
       <c r="B109" t="n">
-        <v>130711</v>
+        <v>161447</v>
       </c>
       <c r="C109" t="s">
         <v>760</v>
@@ -13562,7 +13562,7 @@
         <v>11659</v>
       </c>
       <c r="B110" t="n">
-        <v>130712</v>
+        <v>161448</v>
       </c>
       <c r="C110" t="s">
         <v>767</v>
@@ -13749,7 +13749,7 @@
         <v>11659</v>
       </c>
       <c r="B113" t="n">
-        <v>130713</v>
+        <v>161449</v>
       </c>
       <c r="C113" t="s">
         <v>786</v>
@@ -13881,7 +13881,7 @@
         <v>11659</v>
       </c>
       <c r="B115" t="n">
-        <v>130714</v>
+        <v>161450</v>
       </c>
       <c r="C115" t="s">
         <v>800</v>
@@ -13942,7 +13942,7 @@
         <v>11659</v>
       </c>
       <c r="B116" t="n">
-        <v>130715</v>
+        <v>161451</v>
       </c>
       <c r="C116" t="s">
         <v>806</v>
@@ -14009,7 +14009,7 @@
         <v>11659</v>
       </c>
       <c r="B117" t="n">
-        <v>130716</v>
+        <v>161452</v>
       </c>
       <c r="C117" t="s">
         <v>812</v>
@@ -14076,7 +14076,7 @@
         <v>11659</v>
       </c>
       <c r="B118" t="n">
-        <v>130717</v>
+        <v>161453</v>
       </c>
       <c r="C118" t="s">
         <v>817</v>
@@ -14141,7 +14141,7 @@
         <v>11659</v>
       </c>
       <c r="B119" t="n">
-        <v>130718</v>
+        <v>161454</v>
       </c>
       <c r="C119" t="s">
         <v>824</v>
@@ -14208,7 +14208,7 @@
         <v>11659</v>
       </c>
       <c r="B120" t="n">
-        <v>130719</v>
+        <v>130668</v>
       </c>
       <c r="C120" t="s">
         <v>832</v>
@@ -14273,7 +14273,7 @@
         <v>11659</v>
       </c>
       <c r="B121" t="n">
-        <v>130720</v>
+        <v>161455</v>
       </c>
       <c r="C121" t="s">
         <v>839</v>
@@ -14338,7 +14338,7 @@
         <v>11659</v>
       </c>
       <c r="B122" t="n">
-        <v>130721</v>
+        <v>161456</v>
       </c>
       <c r="C122" t="s">
         <v>847</v>
@@ -14403,7 +14403,7 @@
         <v>11659</v>
       </c>
       <c r="B123" t="n">
-        <v>130722</v>
+        <v>161457</v>
       </c>
       <c r="C123" t="s">
         <v>854</v>
@@ -14525,7 +14525,7 @@
         <v>11659</v>
       </c>
       <c r="B125" t="n">
-        <v>130723</v>
+        <v>161458</v>
       </c>
       <c r="C125" t="s">
         <v>867</v>
@@ -14590,7 +14590,7 @@
         <v>11659</v>
       </c>
       <c r="B126" t="n">
-        <v>130724</v>
+        <v>161459</v>
       </c>
       <c r="C126" t="s">
         <v>874</v>
@@ -14716,7 +14716,7 @@
         <v>11659</v>
       </c>
       <c r="B128" t="n">
-        <v>130725</v>
+        <v>161460</v>
       </c>
       <c r="C128" t="s">
         <v>887</v>
@@ -14783,7 +14783,7 @@
         <v>11659</v>
       </c>
       <c r="B129" t="n">
-        <v>130726</v>
+        <v>161461</v>
       </c>
       <c r="C129" t="s">
         <v>895</v>
@@ -14850,7 +14850,7 @@
         <v>11659</v>
       </c>
       <c r="B130" t="n">
-        <v>130727</v>
+        <v>161462</v>
       </c>
       <c r="C130" t="s">
         <v>901</v>
@@ -14917,7 +14917,7 @@
         <v>11659</v>
       </c>
       <c r="B131" t="n">
-        <v>130728</v>
+        <v>161463</v>
       </c>
       <c r="C131" t="s">
         <v>909</v>
@@ -15045,7 +15045,7 @@
         <v>11659</v>
       </c>
       <c r="B133" t="n">
-        <v>130729</v>
+        <v>161464</v>
       </c>
       <c r="C133" t="s">
         <v>924</v>
@@ -15110,7 +15110,7 @@
         <v>11659</v>
       </c>
       <c r="B134" t="n">
-        <v>130730</v>
+        <v>161465</v>
       </c>
       <c r="C134" t="s">
         <v>930</v>
@@ -15177,7 +15177,7 @@
         <v>11659</v>
       </c>
       <c r="B135" t="n">
-        <v>130731</v>
+        <v>161466</v>
       </c>
       <c r="C135" t="s">
         <v>938</v>
@@ -15244,7 +15244,7 @@
         <v>11659</v>
       </c>
       <c r="B136" t="n">
-        <v>130732</v>
+        <v>161467</v>
       </c>
       <c r="C136" t="s">
         <v>945</v>
@@ -15309,7 +15309,7 @@
         <v>11659</v>
       </c>
       <c r="B137" t="n">
-        <v>130733</v>
+        <v>161468</v>
       </c>
       <c r="C137" t="s">
         <v>952</v>
@@ -15376,7 +15376,7 @@
         <v>11659</v>
       </c>
       <c r="B138" t="n">
-        <v>130734</v>
+        <v>161469</v>
       </c>
       <c r="C138" t="s">
         <v>958</v>
@@ -15443,7 +15443,7 @@
         <v>11659</v>
       </c>
       <c r="B139" t="n">
-        <v>130735</v>
+        <v>161470</v>
       </c>
       <c r="C139" t="s">
         <v>965</v>
@@ -15569,7 +15569,7 @@
         <v>11659</v>
       </c>
       <c r="B141" t="n">
-        <v>130736</v>
+        <v>161471</v>
       </c>
       <c r="C141" t="s">
         <v>980</v>
@@ -15636,7 +15636,7 @@
         <v>11659</v>
       </c>
       <c r="B142" t="n">
-        <v>130737</v>
+        <v>161472</v>
       </c>
       <c r="C142" t="s">
         <v>987</v>
@@ -15703,7 +15703,7 @@
         <v>11659</v>
       </c>
       <c r="B143" t="n">
-        <v>130738</v>
+        <v>161473</v>
       </c>
       <c r="C143" t="s">
         <v>993</v>
@@ -15764,7 +15764,7 @@
         <v>11659</v>
       </c>
       <c r="B144" t="n">
-        <v>130739</v>
+        <v>161474</v>
       </c>
       <c r="C144" t="s">
         <v>1000</v>
@@ -15829,7 +15829,7 @@
         <v>11659</v>
       </c>
       <c r="B145" t="n">
-        <v>130740</v>
+        <v>161475</v>
       </c>
       <c r="C145" t="s">
         <v>1007</v>
@@ -15890,7 +15890,7 @@
         <v>11659</v>
       </c>
       <c r="B146" t="n">
-        <v>130741</v>
+        <v>161476</v>
       </c>
       <c r="C146" t="s">
         <v>1015</v>
@@ -15957,7 +15957,7 @@
         <v>11659</v>
       </c>
       <c r="B147" t="n">
-        <v>130742</v>
+        <v>161477</v>
       </c>
       <c r="C147" t="s">
         <v>1022</v>
@@ -16018,7 +16018,7 @@
         <v>11659</v>
       </c>
       <c r="B148" t="n">
-        <v>130743</v>
+        <v>161478</v>
       </c>
       <c r="C148" t="s">
         <v>1028</v>
@@ -16146,7 +16146,7 @@
         <v>11659</v>
       </c>
       <c r="B150" t="n">
-        <v>130744</v>
+        <v>161479</v>
       </c>
       <c r="C150" t="s">
         <v>1042</v>
@@ -16274,7 +16274,7 @@
         <v>11659</v>
       </c>
       <c r="B152" t="n">
-        <v>130745</v>
+        <v>161480</v>
       </c>
       <c r="C152" t="s">
         <v>1056</v>
@@ -16341,7 +16341,7 @@
         <v>11659</v>
       </c>
       <c r="B153" t="n">
-        <v>130746</v>
+        <v>161481</v>
       </c>
       <c r="C153" t="s">
         <v>1062</v>
@@ -16406,7 +16406,7 @@
         <v>11659</v>
       </c>
       <c r="B154" t="n">
-        <v>130747</v>
+        <v>161482</v>
       </c>
       <c r="C154" t="s">
         <v>1068</v>
@@ -16471,7 +16471,7 @@
         <v>11659</v>
       </c>
       <c r="B155" t="n">
-        <v>130748</v>
+        <v>161483</v>
       </c>
       <c r="C155" t="s">
         <v>1076</v>
@@ -16542,7 +16542,7 @@
         <v>11659</v>
       </c>
       <c r="B156" t="n">
-        <v>130749</v>
+        <v>161484</v>
       </c>
       <c r="C156" t="s">
         <v>1083</v>
@@ -16611,7 +16611,7 @@
         <v>11659</v>
       </c>
       <c r="B157" t="n">
-        <v>130750</v>
+        <v>161485</v>
       </c>
       <c r="C157" t="s">
         <v>1090</v>
@@ -16682,7 +16682,7 @@
         <v>11659</v>
       </c>
       <c r="B158" t="n">
-        <v>130751</v>
+        <v>161486</v>
       </c>
       <c r="C158" t="s">
         <v>1096</v>
@@ -16814,7 +16814,7 @@
         <v>11659</v>
       </c>
       <c r="B160" t="n">
-        <v>130752</v>
+        <v>161487</v>
       </c>
       <c r="C160" t="s">
         <v>1110</v>
@@ -16885,7 +16885,7 @@
         <v>11659</v>
       </c>
       <c r="B161" t="n">
-        <v>130753</v>
+        <v>161488</v>
       </c>
       <c r="C161" t="s">
         <v>1118</v>
@@ -16946,7 +16946,7 @@
         <v>11659</v>
       </c>
       <c r="B162" t="n">
-        <v>130754</v>
+        <v>161489</v>
       </c>
       <c r="C162" t="s">
         <v>1125</v>
@@ -17017,7 +17017,7 @@
         <v>11659</v>
       </c>
       <c r="B163" t="n">
-        <v>130755</v>
+        <v>161490</v>
       </c>
       <c r="C163" t="s">
         <v>1131</v>
@@ -17149,7 +17149,7 @@
         <v>11659</v>
       </c>
       <c r="B165" t="n">
-        <v>130756</v>
+        <v>161491</v>
       </c>
       <c r="C165" t="s">
         <v>1143</v>
@@ -17210,7 +17210,7 @@
         <v>11659</v>
       </c>
       <c r="B166" t="n">
-        <v>130757</v>
+        <v>161492</v>
       </c>
       <c r="C166" t="s">
         <v>1150</v>
@@ -17281,7 +17281,7 @@
         <v>11659</v>
       </c>
       <c r="B167" t="n">
-        <v>130758</v>
+        <v>161493</v>
       </c>
       <c r="C167" t="s">
         <v>1156</v>
@@ -17413,7 +17413,7 @@
         <v>11659</v>
       </c>
       <c r="B169" t="n">
-        <v>130759</v>
+        <v>161494</v>
       </c>
       <c r="C169" t="s">
         <v>1169</v>
@@ -17484,7 +17484,7 @@
         <v>11659</v>
       </c>
       <c r="B170" t="n">
-        <v>130760</v>
+        <v>161495</v>
       </c>
       <c r="C170" t="s">
         <v>1176</v>
@@ -17555,7 +17555,7 @@
         <v>11659</v>
       </c>
       <c r="B171" t="n">
-        <v>130761</v>
+        <v>161496</v>
       </c>
       <c r="C171" t="s">
         <v>1182</v>
@@ -17622,7 +17622,7 @@
         <v>11659</v>
       </c>
       <c r="B172" t="n">
-        <v>130762</v>
+        <v>161497</v>
       </c>
       <c r="C172" t="s">
         <v>1188</v>
@@ -17693,7 +17693,7 @@
         <v>11659</v>
       </c>
       <c r="B173" t="n">
-        <v>130763</v>
+        <v>161498</v>
       </c>
       <c r="C173" t="s">
         <v>1195</v>
@@ -17764,7 +17764,7 @@
         <v>11659</v>
       </c>
       <c r="B174" t="n">
-        <v>130764</v>
+        <v>161499</v>
       </c>
       <c r="C174" t="s">
         <v>1203</v>
@@ -17835,7 +17835,7 @@
         <v>11659</v>
       </c>
       <c r="B175" t="n">
-        <v>130765</v>
+        <v>161500</v>
       </c>
       <c r="C175" t="s">
         <v>1210</v>
@@ -17973,7 +17973,7 @@
         <v>11659</v>
       </c>
       <c r="B177" t="n">
-        <v>130766</v>
+        <v>161501</v>
       </c>
       <c r="C177" t="s">
         <v>1223</v>
@@ -18044,7 +18044,7 @@
         <v>11659</v>
       </c>
       <c r="B178" t="n">
-        <v>130767</v>
+        <v>161502</v>
       </c>
       <c r="C178" t="s">
         <v>1230</v>
@@ -18115,7 +18115,7 @@
         <v>11659</v>
       </c>
       <c r="B179" t="n">
-        <v>130768</v>
+        <v>161503</v>
       </c>
       <c r="C179" t="s">
         <v>1238</v>
@@ -18320,7 +18320,7 @@
         <v>11659</v>
       </c>
       <c r="B182" t="n">
-        <v>130769</v>
+        <v>130676</v>
       </c>
       <c r="C182" t="s">
         <v>1258</v>
@@ -18391,7 +18391,7 @@
         <v>11659</v>
       </c>
       <c r="B183" t="n">
-        <v>130770</v>
+        <v>161504</v>
       </c>
       <c r="C183" t="s">
         <v>1264</v>
@@ -18458,7 +18458,7 @@
         <v>11659</v>
       </c>
       <c r="B184" t="n">
-        <v>130771</v>
+        <v>161505</v>
       </c>
       <c r="C184" t="s">
         <v>1271</v>
@@ -18529,7 +18529,7 @@
         <v>11659</v>
       </c>
       <c r="B185" t="n">
-        <v>130772</v>
+        <v>161506</v>
       </c>
       <c r="C185" t="s">
         <v>1277</v>
@@ -18600,7 +18600,7 @@
         <v>11659</v>
       </c>
       <c r="B186" t="n">
-        <v>130773</v>
+        <v>161507</v>
       </c>
       <c r="C186" t="s">
         <v>1283</v>
@@ -18671,7 +18671,7 @@
         <v>11659</v>
       </c>
       <c r="B187" t="n">
-        <v>130774</v>
+        <v>161508</v>
       </c>
       <c r="C187" t="s">
         <v>1290</v>
@@ -18742,7 +18742,7 @@
         <v>11659</v>
       </c>
       <c r="B188" t="n">
-        <v>130775</v>
+        <v>161509</v>
       </c>
       <c r="C188" t="s">
         <v>1296</v>
@@ -18803,7 +18803,7 @@
         <v>11659</v>
       </c>
       <c r="B189" t="n">
-        <v>130776</v>
+        <v>161510</v>
       </c>
       <c r="C189" t="s">
         <v>1304</v>
@@ -18874,7 +18874,7 @@
         <v>11659</v>
       </c>
       <c r="B190" t="n">
-        <v>130777</v>
+        <v>161511</v>
       </c>
       <c r="C190" t="s">
         <v>1310</v>
@@ -18945,7 +18945,7 @@
         <v>11659</v>
       </c>
       <c r="B191" t="n">
-        <v>130778</v>
+        <v>130666</v>
       </c>
       <c r="C191" t="s">
         <v>1318</v>
@@ -19016,7 +19016,7 @@
         <v>11659</v>
       </c>
       <c r="B192" t="n">
-        <v>130779</v>
+        <v>161512</v>
       </c>
       <c r="C192" t="s">
         <v>1325</v>
@@ -19077,7 +19077,7 @@
         <v>11659</v>
       </c>
       <c r="B193" t="n">
-        <v>130780</v>
+        <v>161513</v>
       </c>
       <c r="C193" t="s">
         <v>1332</v>
@@ -19148,7 +19148,7 @@
         <v>11659</v>
       </c>
       <c r="B194" t="n">
-        <v>130781</v>
+        <v>161514</v>
       </c>
       <c r="C194" t="s">
         <v>1338</v>
@@ -19209,7 +19209,7 @@
         <v>11659</v>
       </c>
       <c r="B195" t="n">
-        <v>130782</v>
+        <v>161515</v>
       </c>
       <c r="C195" t="s">
         <v>1345</v>
@@ -19351,7 +19351,7 @@
         <v>11659</v>
       </c>
       <c r="B197" t="n">
-        <v>130783</v>
+        <v>161516</v>
       </c>
       <c r="C197" t="s">
         <v>1359</v>
@@ -19422,7 +19422,7 @@
         <v>11659</v>
       </c>
       <c r="B198" t="n">
-        <v>130784</v>
+        <v>161517</v>
       </c>
       <c r="C198" t="s">
         <v>1365</v>
@@ -19560,7 +19560,7 @@
         <v>11659</v>
       </c>
       <c r="B200" t="n">
-        <v>130777</v>
+        <v>130666</v>
       </c>
       <c r="C200" t="s">
         <v>1318</v>
@@ -19631,7 +19631,7 @@
         <v>11659</v>
       </c>
       <c r="B201" t="n">
-        <v>130785</v>
+        <v>161518</v>
       </c>
       <c r="C201" t="s">
         <v>1387</v>
@@ -19702,7 +19702,7 @@
         <v>11659</v>
       </c>
       <c r="B202" t="n">
-        <v>130786</v>
+        <v>161519</v>
       </c>
       <c r="C202" t="s">
         <v>1394</v>
@@ -19773,7 +19773,7 @@
         <v>11659</v>
       </c>
       <c r="B203" t="n">
-        <v>130787</v>
+        <v>161520</v>
       </c>
       <c r="C203" t="s">
         <v>1400</v>
@@ -19842,7 +19842,7 @@
         <v>11659</v>
       </c>
       <c r="B204" t="n">
-        <v>130788</v>
+        <v>161521</v>
       </c>
       <c r="C204" t="s">
         <v>1406</v>
@@ -19913,7 +19913,7 @@
         <v>11659</v>
       </c>
       <c r="B205" t="n">
-        <v>130789</v>
+        <v>161522</v>
       </c>
       <c r="C205" t="s">
         <v>1413</v>
@@ -20051,7 +20051,7 @@
         <v>11659</v>
       </c>
       <c r="B207" t="n">
-        <v>130718</v>
+        <v>130668</v>
       </c>
       <c r="C207" t="s">
         <v>832</v>
@@ -20122,7 +20122,7 @@
         <v>11659</v>
       </c>
       <c r="B208" t="n">
-        <v>130790</v>
+        <v>161523</v>
       </c>
       <c r="C208" t="s">
         <v>1433</v>
@@ -20189,7 +20189,7 @@
         <v>11659</v>
       </c>
       <c r="B209" t="n">
-        <v>130791</v>
+        <v>161524</v>
       </c>
       <c r="C209" t="s">
         <v>1440</v>
@@ -20331,7 +20331,7 @@
         <v>11659</v>
       </c>
       <c r="B211" t="n">
-        <v>130792</v>
+        <v>161525</v>
       </c>
       <c r="C211" t="s">
         <v>1456</v>
@@ -20601,7 +20601,7 @@
         <v>11659</v>
       </c>
       <c r="B215" t="n">
-        <v>130793</v>
+        <v>161526</v>
       </c>
       <c r="C215" t="s">
         <v>1483</v>
@@ -20743,7 +20743,7 @@
         <v>11659</v>
       </c>
       <c r="B217" t="n">
-        <v>130794</v>
+        <v>161527</v>
       </c>
       <c r="C217" t="s">
         <v>1498</v>
@@ -20877,7 +20877,7 @@
         <v>11659</v>
       </c>
       <c r="B219" t="n">
-        <v>130795</v>
+        <v>161528</v>
       </c>
       <c r="C219" t="s">
         <v>1512</v>
@@ -20944,7 +20944,7 @@
         <v>11659</v>
       </c>
       <c r="B220" t="n">
-        <v>130796</v>
+        <v>161529</v>
       </c>
       <c r="C220" t="s">
         <v>1518</v>
@@ -21015,7 +21015,7 @@
         <v>11659</v>
       </c>
       <c r="B221" t="n">
-        <v>130797</v>
+        <v>161530</v>
       </c>
       <c r="C221" t="s">
         <v>1525</v>
@@ -21151,7 +21151,7 @@
         <v>11659</v>
       </c>
       <c r="B223" t="n">
-        <v>130798</v>
+        <v>161531</v>
       </c>
       <c r="C223" t="s">
         <v>1540</v>
@@ -21218,7 +21218,7 @@
         <v>11659</v>
       </c>
       <c r="B224" t="n">
-        <v>130799</v>
+        <v>161532</v>
       </c>
       <c r="C224" t="s">
         <v>1547</v>
@@ -21285,7 +21285,7 @@
         <v>11659</v>
       </c>
       <c r="B225" t="n">
-        <v>130768</v>
+        <v>130676</v>
       </c>
       <c r="C225" t="s">
         <v>1258</v>
@@ -21490,7 +21490,7 @@
         <v>11659</v>
       </c>
       <c r="B228" t="n">
-        <v>130800</v>
+        <v>161533</v>
       </c>
       <c r="C228" t="s">
         <v>1576</v>
@@ -21561,7 +21561,7 @@
         <v>11659</v>
       </c>
       <c r="B229" t="n">
-        <v>130801</v>
+        <v>161534</v>
       </c>
       <c r="C229" t="s">
         <v>1584</v>
@@ -21699,7 +21699,7 @@
         <v>11659</v>
       </c>
       <c r="B231" t="n">
-        <v>130802</v>
+        <v>161535</v>
       </c>
       <c r="C231" t="s">
         <v>1598</v>
@@ -21760,7 +21760,7 @@
         <v>11659</v>
       </c>
       <c r="B232" t="n">
-        <v>130803</v>
+        <v>161536</v>
       </c>
       <c r="C232" t="s">
         <v>1605</v>
@@ -21831,7 +21831,7 @@
         <v>11659</v>
       </c>
       <c r="B233" t="n">
-        <v>130804</v>
+        <v>161537</v>
       </c>
       <c r="C233" t="s">
         <v>1613</v>
@@ -21902,7 +21902,7 @@
         <v>11659</v>
       </c>
       <c r="B234" t="n">
-        <v>130805</v>
+        <v>161538</v>
       </c>
       <c r="C234" t="s">
         <v>1620</v>
@@ -21973,7 +21973,7 @@
         <v>11659</v>
       </c>
       <c r="B235" t="n">
-        <v>130806</v>
+        <v>161539</v>
       </c>
       <c r="C235" t="s">
         <v>1626</v>
@@ -22115,7 +22115,7 @@
         <v>11659</v>
       </c>
       <c r="B237" t="n">
-        <v>130807</v>
+        <v>161540</v>
       </c>
       <c r="C237" t="s">
         <v>1641</v>
@@ -22186,7 +22186,7 @@
         <v>11659</v>
       </c>
       <c r="B238" t="n">
-        <v>130808</v>
+        <v>130682</v>
       </c>
       <c r="C238" t="s">
         <v>1648</v>
@@ -22257,7 +22257,7 @@
         <v>11659</v>
       </c>
       <c r="B239" t="n">
-        <v>130809</v>
+        <v>161541</v>
       </c>
       <c r="C239" t="s">
         <v>1656</v>
@@ -22328,7 +22328,7 @@
         <v>11659</v>
       </c>
       <c r="B240" t="n">
-        <v>130810</v>
+        <v>161542</v>
       </c>
       <c r="C240" t="s">
         <v>1664</v>
@@ -22399,7 +22399,7 @@
         <v>11659</v>
       </c>
       <c r="B241" t="n">
-        <v>130811</v>
+        <v>161543</v>
       </c>
       <c r="C241" t="s">
         <v>1672</v>
@@ -22470,7 +22470,7 @@
         <v>11659</v>
       </c>
       <c r="B242" t="n">
-        <v>130812</v>
+        <v>161544</v>
       </c>
       <c r="C242" t="s">
         <v>1679</v>
@@ -22541,7 +22541,7 @@
         <v>11659</v>
       </c>
       <c r="B243" t="n">
-        <v>130813</v>
+        <v>161545</v>
       </c>
       <c r="C243" t="s">
         <v>1687</v>
@@ -22683,7 +22683,7 @@
         <v>11659</v>
       </c>
       <c r="B245" t="n">
-        <v>130814</v>
+        <v>148804</v>
       </c>
       <c r="C245" t="s">
         <v>1702</v>
@@ -22754,7 +22754,7 @@
         <v>11659</v>
       </c>
       <c r="B246" t="n">
-        <v>130815</v>
+        <v>161546</v>
       </c>
       <c r="C246" t="s">
         <v>1710</v>
@@ -22825,7 +22825,7 @@
         <v>11659</v>
       </c>
       <c r="B247" t="n">
-        <v>130807</v>
+        <v>130682</v>
       </c>
       <c r="C247" t="s">
         <v>1648</v>
@@ -22896,7 +22896,7 @@
         <v>11659</v>
       </c>
       <c r="B248" t="n">
-        <v>130816</v>
+        <v>161547</v>
       </c>
       <c r="C248" t="s">
         <v>1723</v>
@@ -22967,7 +22967,7 @@
         <v>11659</v>
       </c>
       <c r="B249" t="n">
-        <v>130817</v>
+        <v>161548</v>
       </c>
       <c r="C249" t="s">
         <v>1731</v>
@@ -23038,7 +23038,7 @@
         <v>11659</v>
       </c>
       <c r="B250" t="n">
-        <v>130818</v>
+        <v>161549</v>
       </c>
       <c r="C250" t="s">
         <v>1739</v>
@@ -23109,7 +23109,7 @@
         <v>11659</v>
       </c>
       <c r="B251" t="n">
-        <v>130819</v>
+        <v>161550</v>
       </c>
       <c r="C251" t="s">
         <v>1747</v>
@@ -23180,7 +23180,7 @@
         <v>11659</v>
       </c>
       <c r="B252" t="n">
-        <v>130820</v>
+        <v>161551</v>
       </c>
       <c r="C252" t="s">
         <v>1755</v>
@@ -23251,7 +23251,7 @@
         <v>11659</v>
       </c>
       <c r="B253" t="n">
-        <v>130821</v>
+        <v>161552</v>
       </c>
       <c r="C253" t="s">
         <v>1762</v>
@@ -23322,7 +23322,7 @@
         <v>11659</v>
       </c>
       <c r="B254" t="n">
-        <v>130822</v>
+        <v>161553</v>
       </c>
       <c r="C254" t="s">
         <v>1770</v>
@@ -23393,7 +23393,7 @@
         <v>11659</v>
       </c>
       <c r="B255" t="n">
-        <v>130823</v>
+        <v>161554</v>
       </c>
       <c r="C255" t="s">
         <v>1778</v>
@@ -23521,7 +23521,7 @@
         <v>11659</v>
       </c>
       <c r="B257" t="n">
-        <v>130824</v>
+        <v>161555</v>
       </c>
       <c r="C257" t="s">
         <v>1793</v>
@@ -23592,7 +23592,7 @@
         <v>11659</v>
       </c>
       <c r="B258" t="n">
-        <v>130825</v>
+        <v>161556</v>
       </c>
       <c r="C258" t="s">
         <v>1801</v>
@@ -23649,7 +23649,7 @@
         <v>11659</v>
       </c>
       <c r="B259" t="n">
-        <v>130826</v>
+        <v>161557</v>
       </c>
       <c r="C259" t="s">
         <v>1807</v>
@@ -23720,7 +23720,7 @@
         <v>11659</v>
       </c>
       <c r="B260" t="n">
-        <v>130827</v>
+        <v>161558</v>
       </c>
       <c r="C260" t="s">
         <v>1815</v>
@@ -23787,7 +23787,7 @@
         <v>11659</v>
       </c>
       <c r="B261" t="n">
-        <v>130828</v>
+        <v>161559</v>
       </c>
       <c r="C261" t="s">
         <v>1822</v>
@@ -23858,7 +23858,7 @@
         <v>11659</v>
       </c>
       <c r="B262" t="n">
-        <v>130829</v>
+        <v>161560</v>
       </c>
       <c r="C262" t="s">
         <v>1829</v>
@@ -23929,7 +23929,7 @@
         <v>11659</v>
       </c>
       <c r="B263" t="n">
-        <v>130830</v>
+        <v>161561</v>
       </c>
       <c r="C263" t="s">
         <v>1836</v>
@@ -24000,7 +24000,7 @@
         <v>11659</v>
       </c>
       <c r="B264" t="n">
-        <v>130831</v>
+        <v>161562</v>
       </c>
       <c r="C264" t="s">
         <v>1844</v>
@@ -24071,7 +24071,7 @@
         <v>11659</v>
       </c>
       <c r="B265" t="n">
-        <v>130832</v>
+        <v>161563</v>
       </c>
       <c r="C265" t="s">
         <v>1852</v>
@@ -24142,7 +24142,7 @@
         <v>11659</v>
       </c>
       <c r="B266" t="n">
-        <v>130833</v>
+        <v>161564</v>
       </c>
       <c r="C266" t="s">
         <v>1860</v>
@@ -24272,7 +24272,7 @@
         <v>11659</v>
       </c>
       <c r="B268" t="n">
-        <v>130834</v>
+        <v>161565</v>
       </c>
       <c r="C268" t="s">
         <v>1873</v>
@@ -24337,7 +24337,7 @@
         <v>11659</v>
       </c>
       <c r="B269" t="n">
-        <v>130835</v>
+        <v>161566</v>
       </c>
       <c r="C269" t="s">
         <v>1879</v>
@@ -24729,7 +24729,7 @@
         <v>11659</v>
       </c>
       <c r="B275" t="n">
-        <v>130836</v>
+        <v>161567</v>
       </c>
       <c r="C275" t="s">
         <v>1915</v>
@@ -24798,7 +24798,7 @@
         <v>11659</v>
       </c>
       <c r="B276" t="n">
-        <v>130837</v>
+        <v>161568</v>
       </c>
       <c r="C276" t="s">
         <v>1922</v>
@@ -24855,7 +24855,7 @@
         <v>11659</v>
       </c>
       <c r="B277" t="n">
-        <v>130838</v>
+        <v>161569</v>
       </c>
       <c r="C277" t="s">
         <v>1929</v>
@@ -24975,7 +24975,7 @@
         <v>11659</v>
       </c>
       <c r="B279" t="n">
-        <v>130839</v>
+        <v>161570</v>
       </c>
       <c r="C279" t="s">
         <v>1939</v>
